--- a/Code/Results/Cases/Case_8_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.989071845909649</v>
+        <v>0.9614000072049578</v>
       </c>
       <c r="C2">
-        <v>0.1394342546961695</v>
+        <v>0.2020062121935666</v>
       </c>
       <c r="D2">
-        <v>0.1138148590582162</v>
+        <v>0.06806267277664624</v>
       </c>
       <c r="E2">
-        <v>0.03623597958256575</v>
+        <v>0.03686847888509881</v>
       </c>
       <c r="F2">
-        <v>2.643804476990113</v>
+        <v>1.758924352606769</v>
       </c>
       <c r="G2">
-        <v>0.0008438902709047014</v>
+        <v>0.0413861007383427</v>
       </c>
       <c r="H2">
-        <v>0.01513687254097051</v>
+        <v>0.007311810651710493</v>
       </c>
       <c r="I2">
-        <v>0.0261541737822828</v>
+        <v>0.01219546063027899</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.952899540855682</v>
+        <v>1.210404633891649</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.484851182841723</v>
       </c>
       <c r="M2">
-        <v>1.031821551395552</v>
+        <v>0.4223175488097795</v>
       </c>
       <c r="N2">
-        <v>0.2782027281735395</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.103432323388034</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2996685651353204</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8615750380829468</v>
+        <v>0.8378142651171743</v>
       </c>
       <c r="C3">
-        <v>0.1193964623975461</v>
+        <v>0.1739048812934527</v>
       </c>
       <c r="D3">
-        <v>0.1097396883840176</v>
+        <v>0.06610313783252275</v>
       </c>
       <c r="E3">
-        <v>0.0311618233612112</v>
+        <v>0.03283641867522569</v>
       </c>
       <c r="F3">
-        <v>2.417913975544536</v>
+        <v>1.628560067452</v>
       </c>
       <c r="G3">
-        <v>0.0008485942293423587</v>
+        <v>0.04956966708308519</v>
       </c>
       <c r="H3">
-        <v>0.01967548887594428</v>
+        <v>0.009886816677067832</v>
       </c>
       <c r="I3">
-        <v>0.0326429752752655</v>
+        <v>0.0155039386382283</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.803592691223074</v>
+        <v>1.141232841548614</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4693606257476191</v>
       </c>
       <c r="M3">
-        <v>0.896654173834122</v>
+        <v>0.3876362118112127</v>
       </c>
       <c r="N3">
-        <v>0.2420674851942266</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.958663420528552</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2621808130539733</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7834522430845539</v>
+        <v>0.761818577961094</v>
       </c>
       <c r="C4">
-        <v>0.1074493557718625</v>
+        <v>0.1569184835737758</v>
       </c>
       <c r="D4">
-        <v>0.1070993466675638</v>
+        <v>0.0648258752898041</v>
       </c>
       <c r="E4">
-        <v>0.02808062559846292</v>
+        <v>0.03035269665006268</v>
       </c>
       <c r="F4">
-        <v>2.278717993663207</v>
+        <v>1.547608128468198</v>
       </c>
       <c r="G4">
-        <v>0.0008515784774376645</v>
+        <v>0.05514160605860896</v>
       </c>
       <c r="H4">
-        <v>0.02286295340422284</v>
+        <v>0.01172562437244004</v>
       </c>
       <c r="I4">
-        <v>0.03716508761820947</v>
+        <v>0.01785783415230391</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.711023846554184</v>
+        <v>1.097768855777019</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.4591081624519546</v>
       </c>
       <c r="M4">
-        <v>0.8142276571765024</v>
+        <v>0.3668791119400652</v>
       </c>
       <c r="N4">
-        <v>0.2199641792755784</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8699860216565298</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.239202411146465</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7514482843294843</v>
+        <v>0.7306487098484808</v>
       </c>
       <c r="C5">
-        <v>0.1028987064056963</v>
+        <v>0.1502924268020251</v>
       </c>
       <c r="D5">
-        <v>0.105797404078821</v>
+        <v>0.06423134721209323</v>
       </c>
       <c r="E5">
-        <v>0.02679805378565803</v>
+        <v>0.02931157863278067</v>
       </c>
       <c r="F5">
-        <v>2.21759422006798</v>
+        <v>1.511528861586626</v>
       </c>
       <c r="G5">
-        <v>0.0008528304012406905</v>
+        <v>0.05756495572925591</v>
       </c>
       <c r="H5">
-        <v>0.02427088756925011</v>
+        <v>0.01254396619646203</v>
       </c>
       <c r="I5">
-        <v>0.039250956185509</v>
+        <v>0.01900504075058418</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.669458454059949</v>
+        <v>1.077527638872716</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.4538105223534785</v>
       </c>
       <c r="M5">
-        <v>0.78099821989818</v>
+        <v>0.3577838990939242</v>
       </c>
       <c r="N5">
-        <v>0.2110149605111218</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8340827434809626</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2298781928634384</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7458936690809423</v>
+        <v>0.725266749237619</v>
       </c>
       <c r="C6">
-        <v>0.1024382694768349</v>
+        <v>0.1494836987555175</v>
       </c>
       <c r="D6">
-        <v>0.105346333627157</v>
+        <v>0.0640649253992942</v>
       </c>
       <c r="E6">
-        <v>0.02654388444831035</v>
+        <v>0.02910640193638514</v>
       </c>
       <c r="F6">
-        <v>2.20223662035778</v>
+        <v>1.502036705905738</v>
       </c>
       <c r="G6">
-        <v>0.0008530534867363681</v>
+        <v>0.05799990595644511</v>
       </c>
       <c r="H6">
-        <v>0.02452553331561158</v>
+        <v>0.01269181979437742</v>
       </c>
       <c r="I6">
-        <v>0.03975053640932114</v>
+        <v>0.01934327872374819</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.658134593503419</v>
+        <v>1.071370460708557</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.4517817491019542</v>
       </c>
       <c r="M6">
-        <v>0.7757763456431235</v>
+        <v>0.3553402870026616</v>
       </c>
       <c r="N6">
-        <v>0.2095806416276531</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8283578413177111</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.228370496317396</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7823544206517852</v>
+        <v>0.7620422826163633</v>
       </c>
       <c r="C7">
-        <v>0.1081815793220926</v>
+        <v>0.1557447887191046</v>
       </c>
       <c r="D7">
-        <v>0.1064449091667043</v>
+        <v>0.06434257642507646</v>
       </c>
       <c r="E7">
-        <v>0.02794888779467541</v>
+        <v>0.03040617370872667</v>
       </c>
       <c r="F7">
-        <v>2.263667674446751</v>
+        <v>1.520656818977812</v>
       </c>
       <c r="G7">
-        <v>0.0008516323383770192</v>
+        <v>0.05587490678362128</v>
       </c>
       <c r="H7">
-        <v>0.02292090853219553</v>
+        <v>0.01179051069299228</v>
       </c>
       <c r="I7">
-        <v>0.03756939900638034</v>
+        <v>0.0182967722769467</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.698400429771539</v>
+        <v>1.078311813226136</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.4512843371394837</v>
       </c>
       <c r="M7">
-        <v>0.8145656630791223</v>
+        <v>0.3601641221618621</v>
       </c>
       <c r="N7">
-        <v>0.2199821472175785</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8684370998250017</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2388008979916236</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9441639640706398</v>
+        <v>0.9220723606727574</v>
       </c>
       <c r="C8">
-        <v>0.1335006093112128</v>
+        <v>0.1870095477435285</v>
       </c>
       <c r="D8">
-        <v>0.1115957344786338</v>
+        <v>0.06634337840196425</v>
       </c>
       <c r="E8">
-        <v>0.03432318288664149</v>
+        <v>0.03588470597364157</v>
       </c>
       <c r="F8">
-        <v>2.547091023836302</v>
+        <v>1.645869015571861</v>
       </c>
       <c r="G8">
-        <v>0.0008455400314312447</v>
+        <v>0.04682201076842052</v>
       </c>
       <c r="H8">
-        <v>0.01665905355851782</v>
+        <v>0.008254032724265392</v>
       </c>
       <c r="I8">
-        <v>0.02872117221739057</v>
+        <v>0.01385722245449816</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.885555960866057</v>
+        <v>1.138848270438793</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.4610188149586349</v>
       </c>
       <c r="M8">
-        <v>0.9861166132512835</v>
+        <v>0.3930554068306549</v>
       </c>
       <c r="N8">
-        <v>0.2659061521810173</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.048538375706784</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2855809781997465</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.26454062036251</v>
+        <v>1.23191893005415</v>
       </c>
       <c r="C9">
-        <v>0.1849605699855346</v>
+        <v>0.2560218273386425</v>
       </c>
       <c r="D9">
-        <v>0.1217360067464526</v>
+        <v>0.070937749486776</v>
       </c>
       <c r="E9">
-        <v>0.04738434568540839</v>
+        <v>0.04618539455687198</v>
       </c>
       <c r="F9">
-        <v>3.125596027918562</v>
+        <v>1.962348441127077</v>
       </c>
       <c r="G9">
-        <v>0.0008342700709664824</v>
+        <v>0.02978248510931181</v>
       </c>
       <c r="H9">
-        <v>0.007703084203803889</v>
+        <v>0.003332332865437548</v>
       </c>
       <c r="I9">
-        <v>0.0153345252986119</v>
+        <v>0.007087720995428981</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.267703529203871</v>
+        <v>1.304759953250468</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.496279985635546</v>
       </c>
       <c r="M9">
-        <v>1.326535429829136</v>
+        <v>0.4809636775164918</v>
       </c>
       <c r="N9">
-        <v>0.3565995519883813</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.408934168007193</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3789643236383284</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.499295365900196</v>
+        <v>1.46522149518259</v>
       </c>
       <c r="C10">
-        <v>0.2279319425063591</v>
+        <v>0.2990612013231271</v>
       </c>
       <c r="D10">
-        <v>0.1251644012074209</v>
+        <v>0.07287962069067788</v>
       </c>
       <c r="E10">
-        <v>0.05356132653644252</v>
+        <v>0.05143976335393852</v>
       </c>
       <c r="F10">
-        <v>3.47243673836482</v>
+        <v>2.050687678230815</v>
       </c>
       <c r="G10">
-        <v>0.0008266182067726511</v>
+        <v>0.02895746821526934</v>
       </c>
       <c r="H10">
-        <v>0.003858723373804551</v>
+        <v>0.001550644877705842</v>
       </c>
       <c r="I10">
-        <v>0.008967215388413941</v>
+        <v>0.004318401696631113</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.480786493862723</v>
+        <v>1.323938633681095</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4838096308363262</v>
       </c>
       <c r="M10">
-        <v>1.583484513077991</v>
+        <v>0.5096520011381287</v>
       </c>
       <c r="N10">
-        <v>0.4055115025781646</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.66641846388822</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4264650437466173</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.585707790749751</v>
+        <v>1.571855531739203</v>
       </c>
       <c r="C11">
-        <v>0.2696352409279683</v>
+        <v>0.3136595977478009</v>
       </c>
       <c r="D11">
-        <v>0.1045624302193655</v>
+        <v>0.07842654280650052</v>
       </c>
       <c r="E11">
-        <v>0.03027145895135419</v>
+        <v>0.03196150964964239</v>
       </c>
       <c r="F11">
-        <v>3.016149912427522</v>
+        <v>1.60260791370483</v>
       </c>
       <c r="G11">
-        <v>0.0008248129886198376</v>
+        <v>0.06262379349062641</v>
       </c>
       <c r="H11">
-        <v>0.02241813815730254</v>
+        <v>0.02027248633920919</v>
       </c>
       <c r="I11">
-        <v>0.008473802563111477</v>
+        <v>0.004633982856216079</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.077705474484603</v>
+        <v>0.9874038252278368</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3579270439332376</v>
       </c>
       <c r="M11">
-        <v>1.719249790791849</v>
+        <v>0.3848470946527058</v>
       </c>
       <c r="N11">
-        <v>0.2809555542578295</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.774907531313374</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.293103982398776</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.609675631107905</v>
+        <v>1.609082594438718</v>
       </c>
       <c r="C12">
-        <v>0.2957924483938541</v>
+        <v>0.3225743195144446</v>
       </c>
       <c r="D12">
-        <v>0.09392600191242106</v>
+        <v>0.08975492959249465</v>
       </c>
       <c r="E12">
-        <v>0.01756486756541698</v>
+        <v>0.02087879813569327</v>
       </c>
       <c r="F12">
-        <v>2.608404825042925</v>
+        <v>1.308519874187837</v>
       </c>
       <c r="G12">
-        <v>0.0008246811178124554</v>
+        <v>0.08741165141005069</v>
       </c>
       <c r="H12">
-        <v>0.06145825749545963</v>
+        <v>0.05919181612732416</v>
       </c>
       <c r="I12">
-        <v>0.008519761113187307</v>
+        <v>0.00467453335108825</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.743735306525195</v>
+        <v>0.7806925660494386</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2844844592123863</v>
       </c>
       <c r="M12">
-        <v>1.778906185563528</v>
+        <v>0.3040588815755783</v>
       </c>
       <c r="N12">
-        <v>0.1853634648441727</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.817889111982936</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.1931050106463204</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.585627449779878</v>
+        <v>1.590074844811738</v>
       </c>
       <c r="C13">
-        <v>0.3123756391282484</v>
+        <v>0.3341482655298478</v>
       </c>
       <c r="D13">
-        <v>0.08922124268650933</v>
+        <v>0.100180930975057</v>
       </c>
       <c r="E13">
-        <v>0.01204559992099689</v>
+        <v>0.01604165613467678</v>
       </c>
       <c r="F13">
-        <v>2.193364922236725</v>
+        <v>1.111023526115332</v>
       </c>
       <c r="G13">
-        <v>0.0008258823927531983</v>
+        <v>0.08243874670928975</v>
       </c>
       <c r="H13">
-        <v>0.1179821624870669</v>
+        <v>0.1153124435749504</v>
       </c>
       <c r="I13">
-        <v>0.009447053121978577</v>
+        <v>0.005002521769472246</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.425743847621419</v>
+        <v>0.6494743378141976</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2401868302782937</v>
       </c>
       <c r="M13">
-        <v>1.78399075301067</v>
+        <v>0.2499633979861642</v>
       </c>
       <c r="N13">
-        <v>0.1073176704237113</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.818442247945541</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1133133656427887</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.546977754623896</v>
+        <v>1.551293298781786</v>
       </c>
       <c r="C14">
-        <v>0.3200314890657125</v>
+        <v>0.3438755626803243</v>
       </c>
       <c r="D14">
-        <v>0.08938072338465375</v>
+        <v>0.1059885275631558</v>
       </c>
       <c r="E14">
-        <v>0.01251981394073232</v>
+        <v>0.01693749539497702</v>
       </c>
       <c r="F14">
-        <v>1.90241586942156</v>
+        <v>1.006048426318102</v>
       </c>
       <c r="G14">
-        <v>0.0008273200769632894</v>
+        <v>0.06665346226690261</v>
       </c>
       <c r="H14">
-        <v>0.16807825809029</v>
+        <v>0.1649811985903256</v>
       </c>
       <c r="I14">
-        <v>0.01064992901882</v>
+        <v>0.005498098217791458</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.213807032325228</v>
+        <v>0.5834214397407322</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.218837384889941</v>
       </c>
       <c r="M14">
-        <v>1.763191424407978</v>
+        <v>0.2214611313463273</v>
       </c>
       <c r="N14">
-        <v>0.06386026270080691</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.799635912710499</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.06931383074215347</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.527143974435091</v>
+        <v>1.529923610024696</v>
       </c>
       <c r="C15">
-        <v>0.3200394068468029</v>
+        <v>0.3468856724925615</v>
       </c>
       <c r="D15">
-        <v>0.08986995088197958</v>
+        <v>0.1062053911366974</v>
       </c>
       <c r="E15">
-        <v>0.01312319134884721</v>
+        <v>0.017745423396895</v>
       </c>
       <c r="F15">
-        <v>1.823110193041686</v>
+        <v>0.9897854015793541</v>
       </c>
       <c r="G15">
-        <v>0.0008279862855679076</v>
+        <v>0.05859893605525812</v>
       </c>
       <c r="H15">
-        <v>0.1809282418916496</v>
+        <v>0.1776344112565482</v>
       </c>
       <c r="I15">
-        <v>0.01132376184481831</v>
+        <v>0.005859271866924587</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.15897980478573</v>
+        <v>0.5739987694602604</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2162208705722612</v>
       </c>
       <c r="M15">
-        <v>1.746708638128297</v>
+        <v>0.2167924557159111</v>
       </c>
       <c r="N15">
-        <v>0.05455475835768198</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.785823472824859</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.06005995998395264</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.430798733140961</v>
+        <v>1.42120410340965</v>
       </c>
       <c r="C16">
-        <v>0.2977200502891719</v>
+        <v>0.345463473171975</v>
       </c>
       <c r="D16">
-        <v>0.08923760425468075</v>
+        <v>0.09408698512822866</v>
       </c>
       <c r="E16">
-        <v>0.01187360655263614</v>
+        <v>0.01733342214786049</v>
       </c>
       <c r="F16">
-        <v>1.760882253366972</v>
+        <v>1.082549840511078</v>
       </c>
       <c r="G16">
-        <v>0.000831011367515748</v>
+        <v>0.03208270252803125</v>
       </c>
       <c r="H16">
-        <v>0.1698855276636806</v>
+        <v>0.1656333641446111</v>
       </c>
       <c r="I16">
-        <v>0.01399152436947215</v>
+        <v>0.0070059557268074</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.134324047572754</v>
+        <v>0.639495003957407</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2423413790530091</v>
       </c>
       <c r="M16">
-        <v>1.634467918253108</v>
+        <v>0.2385323713934291</v>
       </c>
       <c r="N16">
-        <v>0.05247133510394519</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.691633472682668</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.05972578746855106</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.377535788726107</v>
+        <v>1.360743868611905</v>
       </c>
       <c r="C17">
-        <v>0.2766511672073193</v>
+        <v>0.3354763419432913</v>
       </c>
       <c r="D17">
-        <v>0.08805660608199695</v>
+        <v>0.08480486087733397</v>
       </c>
       <c r="E17">
-        <v>0.009876869299989544</v>
+        <v>0.01524895783553415</v>
       </c>
       <c r="F17">
-        <v>1.862863956440449</v>
+        <v>1.201381263123835</v>
       </c>
       <c r="G17">
-        <v>0.0008325851742620035</v>
+        <v>0.02716151135476697</v>
       </c>
       <c r="H17">
-        <v>0.1330350064533548</v>
+        <v>0.1282667139608975</v>
       </c>
       <c r="I17">
-        <v>0.01546592181878914</v>
+        <v>0.00768306007230013</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.223109353877476</v>
+        <v>0.7234121635176223</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2744629036016022</v>
       </c>
       <c r="M17">
-        <v>1.55976658116009</v>
+        <v>0.2686382755859569</v>
       </c>
       <c r="N17">
-        <v>0.07162600428247146</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.626539004560584</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.0808297253729009</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.355448085235736</v>
+        <v>1.332101520952023</v>
       </c>
       <c r="C18">
-        <v>0.2538745736231789</v>
+        <v>0.3209148988782147</v>
       </c>
       <c r="D18">
-        <v>0.08943876957029939</v>
+        <v>0.07656367940079889</v>
       </c>
       <c r="E18">
-        <v>0.01092016827555975</v>
+        <v>0.01516028339801667</v>
       </c>
       <c r="F18">
-        <v>2.142035322453779</v>
+        <v>1.395722328080922</v>
       </c>
       <c r="G18">
-        <v>0.0008329755248121849</v>
+        <v>0.02599062934416541</v>
       </c>
       <c r="H18">
-        <v>0.08025521935351065</v>
+        <v>0.07543741323287634</v>
       </c>
       <c r="I18">
-        <v>0.01546564022699837</v>
+        <v>0.00751246543139672</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.443546987958896</v>
+        <v>0.8605192034989102</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3252158888561425</v>
       </c>
       <c r="M18">
-        <v>1.508011703543161</v>
+        <v>0.3202187539797094</v>
       </c>
       <c r="N18">
-        <v>0.1212546690110727</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.582740231803484</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1335571180422193</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.358527568314827</v>
+        <v>1.328682713382392</v>
       </c>
       <c r="C19">
-        <v>0.2339516311752448</v>
+        <v>0.307728175410972</v>
       </c>
       <c r="D19">
-        <v>0.09725049066005909</v>
+        <v>0.07187648047808537</v>
       </c>
       <c r="E19">
-        <v>0.02017802244696298</v>
+        <v>0.02225504282821333</v>
       </c>
       <c r="F19">
-        <v>2.547769688163243</v>
+        <v>1.645931827198993</v>
       </c>
       <c r="G19">
-        <v>0.0008323233092026668</v>
+        <v>0.02498518153232698</v>
       </c>
       <c r="H19">
-        <v>0.03408300574995593</v>
+        <v>0.02968805813594599</v>
       </c>
       <c r="I19">
-        <v>0.01479750835843507</v>
+        <v>0.00732086991918024</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.76429586358563</v>
+        <v>1.039934170242162</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3905314839944296</v>
       </c>
       <c r="M19">
-        <v>1.480263531563565</v>
+        <v>0.3891193905818895</v>
       </c>
       <c r="N19">
-        <v>0.2075235474601129</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.562424945067164</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2240498373065947</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.435127408038142</v>
+        <v>1.397607755327982</v>
       </c>
       <c r="C20">
-        <v>0.2190655274696525</v>
+        <v>0.2972625028029938</v>
       </c>
       <c r="D20">
-        <v>0.1222745358319202</v>
+        <v>0.07249423579473646</v>
       </c>
       <c r="E20">
-        <v>0.05138223463439218</v>
+        <v>0.04908165056411029</v>
       </c>
       <c r="F20">
-        <v>3.333800518017938</v>
+        <v>2.05618737072281</v>
       </c>
       <c r="G20">
-        <v>0.000828713100260606</v>
+        <v>0.02363227207205476</v>
       </c>
       <c r="H20">
-        <v>0.004752750735050881</v>
+        <v>0.001896291007246642</v>
       </c>
       <c r="I20">
-        <v>0.01140998368702917</v>
+        <v>0.00591210923802965</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.384905287429063</v>
+        <v>1.334884343322699</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4926998520835042</v>
       </c>
       <c r="M20">
-        <v>1.518086842662115</v>
+        <v>0.5082938177840077</v>
       </c>
       <c r="N20">
-        <v>0.3922608861727355</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.607258321056889</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.414938862504016</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.620008449517456</v>
+        <v>1.602930694357696</v>
       </c>
       <c r="C21">
-        <v>0.2491260694098401</v>
+        <v>0.2919224683676873</v>
       </c>
       <c r="D21">
-        <v>0.1297497645183903</v>
+        <v>0.07447226921560457</v>
       </c>
       <c r="E21">
-        <v>0.06202786820720974</v>
+        <v>0.06147234552124203</v>
       </c>
       <c r="F21">
-        <v>3.719119939356347</v>
+        <v>1.894331528159313</v>
       </c>
       <c r="G21">
-        <v>0.0008226439234464811</v>
+        <v>0.08257969017480349</v>
       </c>
       <c r="H21">
-        <v>0.002033461022667549</v>
+        <v>0.0007082437892109716</v>
       </c>
       <c r="I21">
-        <v>0.007115913690540765</v>
+        <v>0.004330102121945956</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.645590700128054</v>
+        <v>1.202973270935587</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.4323650001757287</v>
       </c>
       <c r="M21">
-        <v>1.713747759730921</v>
+        <v>0.4721001997126066</v>
       </c>
       <c r="N21">
-        <v>0.4588954383225143</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.768864628171883</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4736216906176338</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.741346227469592</v>
+        <v>1.740140616826466</v>
       </c>
       <c r="C22">
-        <v>0.2695250841265135</v>
+        <v>0.2870760128111556</v>
       </c>
       <c r="D22">
-        <v>0.1338132373585736</v>
+        <v>0.07861067845768588</v>
       </c>
       <c r="E22">
-        <v>0.06738057025675914</v>
+        <v>0.06863031101012496</v>
       </c>
       <c r="F22">
-        <v>3.954401600575153</v>
+        <v>1.767306713516021</v>
       </c>
       <c r="G22">
-        <v>0.0008187988398090495</v>
+        <v>0.1697520256502258</v>
       </c>
       <c r="H22">
-        <v>0.000959686665982229</v>
+        <v>0.0002944712396759641</v>
       </c>
       <c r="I22">
-        <v>0.004735354532281022</v>
+        <v>0.003179041731429244</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.802069037062779</v>
+        <v>1.104137441602077</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3903291075644404</v>
       </c>
       <c r="M22">
-        <v>1.842922857946149</v>
+        <v>0.4420470528328408</v>
       </c>
       <c r="N22">
-        <v>0.4930535306388322</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.871470491929728</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5014446254194667</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.677405300502755</v>
+        <v>1.664128350441331</v>
       </c>
       <c r="C23">
-        <v>0.2576180506934378</v>
+        <v>0.2933783190694044</v>
       </c>
       <c r="D23">
-        <v>0.1323970351927741</v>
+        <v>0.0756251855471497</v>
       </c>
       <c r="E23">
-        <v>0.06466330624565586</v>
+        <v>0.06439928318258126</v>
       </c>
       <c r="F23">
-        <v>3.845828923472425</v>
+        <v>1.882753360866047</v>
       </c>
       <c r="G23">
-        <v>0.00082080646435832</v>
+        <v>0.1046558811013725</v>
       </c>
       <c r="H23">
-        <v>0.001471199119659428</v>
+        <v>0.0004776243876776221</v>
       </c>
       <c r="I23">
-        <v>0.005582616344555369</v>
+        <v>0.003340491447703542</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.733031115888977</v>
+        <v>1.188971357685745</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4236509768538994</v>
       </c>
       <c r="M23">
-        <v>1.772976957952494</v>
+        <v>0.4711862673778242</v>
       </c>
       <c r="N23">
-        <v>0.4746377133245545</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.820783021659764</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4875211516515066</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.435189649944903</v>
+        <v>1.396604530864693</v>
       </c>
       <c r="C24">
-        <v>0.2153764386738146</v>
+        <v>0.2943300405280525</v>
       </c>
       <c r="D24">
-        <v>0.1256330640471504</v>
+        <v>0.07291711169242987</v>
       </c>
       <c r="E24">
-        <v>0.05434189257761446</v>
+        <v>0.05161991169342173</v>
       </c>
       <c r="F24">
-        <v>3.40932284697638</v>
+        <v>2.104806453961402</v>
       </c>
       <c r="G24">
-        <v>0.0008286011250016398</v>
+        <v>0.02331502086492243</v>
       </c>
       <c r="H24">
-        <v>0.004484562995041852</v>
+        <v>0.001696051367234164</v>
       </c>
       <c r="I24">
-        <v>0.01074246645178345</v>
+        <v>0.00522621619091268</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.44856748189936</v>
+        <v>1.372432440794725</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5064243989529587</v>
       </c>
       <c r="M24">
-        <v>1.512073322244504</v>
+        <v>0.5226626038633242</v>
       </c>
       <c r="N24">
-        <v>0.4056798242647659</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.602370557792824</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.4289902348511845</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.176305092260606</v>
+        <v>1.145325446721188</v>
       </c>
       <c r="C25">
-        <v>0.1720837461381279</v>
+        <v>0.2412621009139571</v>
       </c>
       <c r="D25">
-        <v>0.1179689679427725</v>
+        <v>0.06983425220072892</v>
       </c>
       <c r="E25">
-        <v>0.04358355431745053</v>
+        <v>0.04300814536228259</v>
       </c>
       <c r="F25">
-        <v>2.943292072085001</v>
+        <v>1.884437083328763</v>
       </c>
       <c r="G25">
-        <v>0.0008373050426024706</v>
+        <v>0.03260329271476836</v>
       </c>
       <c r="H25">
-        <v>0.009777814954828656</v>
+        <v>0.004409735949752913</v>
       </c>
       <c r="I25">
-        <v>0.01901439069338196</v>
+        <v>0.009166677869380635</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.142952662298143</v>
+        <v>1.263586778629275</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4884390740081699</v>
       </c>
       <c r="M25">
-        <v>1.235115427676618</v>
+        <v>0.4577966374502438</v>
       </c>
       <c r="N25">
-        <v>0.3321857655964209</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.314814154929422</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3544022716848332</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
